--- a/SVM_ATTACK_RESULTS.xlsx
+++ b/SVM_ATTACK_RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_puf\Arbiterpuf Data\Modeling_accuracy_Arbiter_4_5_6_XOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4775B6D-7661-4536-8102-894BD9BA0F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2DFF1-29AF-4DB8-96BF-BE6176F32116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1B5C6F11-CE17-4E45-9790-5AF895A8DD5B}"/>
+    <workbookView xWindow="4560" yWindow="2385" windowWidth="10350" windowHeight="11055" xr2:uid="{1B5C6F11-CE17-4E45-9790-5AF895A8DD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
         <v>0.73360000000000003</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>

--- a/SVM_ATTACK_RESULTS.xlsx
+++ b/SVM_ATTACK_RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_puf\Arbiterpuf Data\Modeling_accuracy_Arbiter_4_5_6_XOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2DFF1-29AF-4DB8-96BF-BE6176F32116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBAD7CD-85A3-4A94-81F7-FF87F1334761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2385" windowWidth="10350" windowHeight="11055" xr2:uid="{1B5C6F11-CE17-4E45-9790-5AF895A8DD5B}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>10*10^4</t>
   </si>
   <si>
-    <t>{"kernel": "poly", "gamma": 100.0, "C": 1.0}</t>
-  </si>
-  <si>
     <t>{"kernel": "rbf", "gamma": 0.01, "C": 10.0}</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>6*10^4</t>
+  </si>
+  <si>
+    <t>{"kernel": "poly", "gamma": 1.0, "C": 1000.0}</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +153,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B96C8C5-87EB-4923-8287-2541ED66AE92}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,24 +498,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3">
         <v>0.94779999999999998</v>
@@ -525,7 +528,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -533,14 +536,14 @@
         <v>0.73360000000000003</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,14 +551,14 @@
         <v>0.62070000000000003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,11 +569,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -581,28 +584,28 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>0.94230000000000003</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,14 +613,14 @@
         <v>0.73670000000000002</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -625,14 +628,14 @@
         <v>0.65090000000000003</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -643,11 +646,11 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
